--- a/data/trans_dic/P25D_R2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R2_2023-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.02821839041639078</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.007032197864370838</v>
+        <v>0.007032197864370839</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.01730665858759615</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01537992111881954</v>
+        <v>0.01502539837981305</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003185200733177922</v>
+        <v>0.003296887978575225</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01007818075445501</v>
+        <v>0.01022938906391656</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05312226205090492</v>
+        <v>0.05561191961099351</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0142407619220236</v>
+        <v>0.01468357248504578</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03051721028311252</v>
+        <v>0.02865209074368714</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.01640593174462621</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0281005696864828</v>
+        <v>0.02810056968648279</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02585226773606993</v>
+        <v>0.02583689675282711</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009876290392081927</v>
+        <v>0.01001549134564912</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01998665437585092</v>
+        <v>0.02035827998004927</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06138426419128277</v>
+        <v>0.06197844256969267</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02670267135602355</v>
+        <v>0.02801878077582074</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03909107419778605</v>
+        <v>0.04042630908632055</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.02949928209715501</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.02779077600470424</v>
+        <v>0.02779077600470425</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.02863954435638175</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01578890254811643</v>
+        <v>0.01620579570258162</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01755813894364483</v>
+        <v>0.01643575767856314</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01931765167142457</v>
+        <v>0.01966426029898249</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05014316740255011</v>
+        <v>0.04903044654314874</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0468503002825431</v>
+        <v>0.04629367175222431</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.041414745566881</v>
+        <v>0.04107811327617042</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.03523043405092105</v>
+        <v>0.03523043405092106</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.02393687893005244</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.02922877220058065</v>
+        <v>0.02922877220058064</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0216159090973691</v>
+        <v>0.0224886880378091</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01475503373462412</v>
+        <v>0.01539569871906034</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02109120330772217</v>
+        <v>0.02114829153421903</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0559299957606196</v>
+        <v>0.05356424473963663</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03603357818788044</v>
+        <v>0.03612180005519992</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04060566084230357</v>
+        <v>0.03995637892948237</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.03398502895526763</v>
+        <v>0.03398502895526764</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.01929981707580759</v>
+        <v>0.0192998170758076</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.02643368445029211</v>
+        <v>0.02643368445029212</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02625229712738709</v>
+        <v>0.02708753542960424</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01499605300007515</v>
+        <v>0.01450673406588835</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02184478630354801</v>
+        <v>0.02184277289348843</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04420427292151743</v>
+        <v>0.04316300226435273</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02495500029838613</v>
+        <v>0.02457912788608132</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03128917001956389</v>
+        <v>0.0313781853938863</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10587</v>
+        <v>10343</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2329</v>
+        <v>2410</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14305</v>
+        <v>14520</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>36568</v>
+        <v>38281</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10411</v>
+        <v>10735</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>43317</v>
+        <v>40670</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>27117</v>
+        <v>27101</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10569</v>
+        <v>10718</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>42353</v>
+        <v>43141</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>64387</v>
+        <v>65010</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28576</v>
+        <v>29984</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>82837</v>
+        <v>85666</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12661</v>
+        <v>12995</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>14262</v>
+        <v>13350</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>31182</v>
+        <v>31741</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>40210</v>
+        <v>39317</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38055</v>
+        <v>37602</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>66850</v>
+        <v>66306</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>21244</v>
+        <v>22101</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16446</v>
+        <v>17160</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>44236</v>
+        <v>44356</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>54967</v>
+        <v>52642</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>40163</v>
+        <v>40261</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>85165</v>
+        <v>83804</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>92460</v>
+        <v>95401</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>55906</v>
+        <v>54082</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>158375</v>
+        <v>158361</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>155686</v>
+        <v>152018</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>93034</v>
+        <v>91633</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>226847</v>
+        <v>227493</v>
       </c>
     </row>
     <row r="24">
